--- a/folder1/202203/hola/jeje.xlsx
+++ b/folder1/202203/hola/jeje.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Projects\internship\consolidacion_pw\folder1\202203\hola\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251FAA23-4100-40EF-A9E8-F6466D93D373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9641B3-86B4-48CD-983F-38727CED1B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HOJA JEJEJE" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
